--- a/1217/1217-testcase.xlsx
+++ b/1217/1217-testcase.xlsx
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>VERSION</t>
   </si>
@@ -337,9 +337,6 @@
     <t>VVC</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>Created date</t>
   </si>
   <si>
@@ -518,6 +515,12 @@
   </si>
   <si>
     <t xml:space="preserve">Có sự phân biệt với các ô input còn lại </t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>NG</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,7 +570,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1199,6 +1202,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,18 +1226,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,6 +1251,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4101,7 +4104,7 @@
       <c r="Y33" s="38"/>
       <c r="Z33" s="39"/>
       <c r="AA33" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB33" s="39"/>
       <c r="AC33" s="38"/>
@@ -4458,7 +4461,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="11" customFormat="1" ht="24">
       <c r="A1" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16" t="s">
@@ -4652,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI25"/>
+  <dimension ref="A1:BI22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16:AM17"/>
+      <selection activeCell="AR18" sqref="AR18:AT19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -4668,17 +4671,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="115"/>
       <c r="H1" s="128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="122"/>
       <c r="J1" s="122"/>
@@ -4726,12 +4729,12 @@
       <c r="AT1" s="130"/>
       <c r="AU1" s="130"/>
       <c r="AV1" s="130"/>
-      <c r="AW1" s="108" t="s">
+      <c r="AW1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="109"/>
-      <c r="AY1" s="109"/>
-      <c r="AZ1" s="110"/>
+      <c r="AX1" s="103"/>
+      <c r="AY1" s="103"/>
+      <c r="AZ1" s="104"/>
       <c r="BA1" s="120" t="s">
         <v>13</v>
       </c>
@@ -4745,13 +4748,13 @@
       <c r="BI1" s="7"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="116"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="121"/>
       <c r="I2" s="122"/>
       <c r="J2" s="122"/>
@@ -4781,7 +4784,7 @@
       <c r="AH2" s="122"/>
       <c r="AI2" s="123"/>
       <c r="AJ2" s="124" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="AK2" s="125"/>
       <c r="AL2" s="125"/>
@@ -4796,19 +4799,19 @@
       <c r="AR2" s="125"/>
       <c r="AS2" s="126">
         <f>COUNTIF($AR:$AR,"NG")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT2" s="125"/>
       <c r="AU2" s="125"/>
       <c r="AV2" s="125"/>
-      <c r="AW2" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX2" s="109"/>
-      <c r="AY2" s="109"/>
-      <c r="AZ2" s="110"/>
+      <c r="AW2" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="104"/>
       <c r="BA2" s="127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB2" s="120"/>
       <c r="BC2" s="120"/>
@@ -4855,33 +4858,33 @@
       <c r="AG3" s="89"/>
       <c r="AH3" s="89"/>
       <c r="AI3" s="90"/>
-      <c r="AJ3" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK3" s="109"/>
-      <c r="AL3" s="109"/>
-      <c r="AM3" s="110"/>
-      <c r="AN3" s="111"/>
-      <c r="AO3" s="112"/>
-      <c r="AP3" s="112"/>
-      <c r="AQ3" s="112"/>
-      <c r="AR3" s="112"/>
-      <c r="AS3" s="112"/>
-      <c r="AT3" s="112"/>
-      <c r="AU3" s="112"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="109"/>
-      <c r="AY3" s="109"/>
-      <c r="AZ3" s="110"/>
-      <c r="BA3" s="111"/>
-      <c r="BB3" s="112"/>
-      <c r="BC3" s="112"/>
-      <c r="BD3" s="112"/>
-      <c r="BE3" s="112"/>
-      <c r="BF3" s="112"/>
-      <c r="BG3" s="112"/>
-      <c r="BH3" s="113"/>
+      <c r="AJ3" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="111"/>
+      <c r="AP3" s="111"/>
+      <c r="AQ3" s="111"/>
+      <c r="AR3" s="111"/>
+      <c r="AS3" s="111"/>
+      <c r="AT3" s="111"/>
+      <c r="AU3" s="111"/>
+      <c r="AV3" s="112"/>
+      <c r="AW3" s="102"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="104"/>
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="111"/>
+      <c r="BC3" s="111"/>
+      <c r="BD3" s="111"/>
+      <c r="BE3" s="111"/>
+      <c r="BF3" s="111"/>
+      <c r="BG3" s="111"/>
+      <c r="BH3" s="112"/>
       <c r="BI3" s="7"/>
     </row>
     <row r="4" spans="1:61">
@@ -4920,35 +4923,35 @@
       <c r="AG4" s="92"/>
       <c r="AH4" s="92"/>
       <c r="AI4" s="93"/>
-      <c r="AJ4" s="114" t="s">
+      <c r="AJ4" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="115"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118"/>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX4" s="115"/>
-      <c r="AY4" s="115"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="117"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118"/>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="119"/>
+      <c r="AX4" s="114"/>
+      <c r="AY4" s="114"/>
+      <c r="AZ4" s="115"/>
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="117"/>
+      <c r="BC4" s="117"/>
+      <c r="BD4" s="117"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="117"/>
+      <c r="BG4" s="117"/>
+      <c r="BH4" s="118"/>
     </row>
     <row r="5" spans="1:61" s="2" customFormat="1">
       <c r="A5" s="6"/>
@@ -5015,30 +5018,30 @@
     </row>
     <row r="6" spans="1:61" ht="14.25">
       <c r="A6" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="102" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="96" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="96" t="s">
-        <v>21</v>
       </c>
       <c r="U6" s="97"/>
       <c r="V6" s="97"/>
@@ -5049,7 +5052,7 @@
       <c r="AA6" s="97"/>
       <c r="AB6" s="98"/>
       <c r="AC6" s="96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD6" s="97"/>
       <c r="AE6" s="97"/>
@@ -5062,18 +5065,18 @@
       <c r="AL6" s="97"/>
       <c r="AM6" s="98"/>
       <c r="AN6" s="96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO6" s="97"/>
       <c r="AP6" s="97"/>
       <c r="AQ6" s="98"/>
       <c r="AR6" s="96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS6" s="97"/>
       <c r="AT6" s="98"/>
       <c r="AU6" s="96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV6" s="97"/>
       <c r="AW6" s="98"/>
@@ -5082,44 +5085,44 @@
       </c>
       <c r="AY6" s="97"/>
       <c r="AZ6" s="98"/>
-      <c r="BA6" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB6" s="107"/>
-      <c r="BC6" s="107"/>
-      <c r="BD6" s="107"/>
-      <c r="BE6" s="107"/>
-      <c r="BF6" s="107"/>
-      <c r="BG6" s="107"/>
-      <c r="BH6" s="107"/>
+      <c r="BA6" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB6" s="119"/>
+      <c r="BC6" s="119"/>
+      <c r="BD6" s="119"/>
+      <c r="BE6" s="119"/>
+      <c r="BF6" s="119"/>
+      <c r="BG6" s="119"/>
+      <c r="BH6" s="119"/>
       <c r="BI6" s="8"/>
     </row>
     <row r="7" spans="1:61" s="3" customFormat="1" ht="14.25">
       <c r="A7" s="95"/>
       <c r="B7" s="95"/>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
       <c r="T7" s="99"/>
       <c r="U7" s="100"/>
       <c r="V7" s="100"/>
@@ -5153,14 +5156,14 @@
       <c r="AX7" s="99"/>
       <c r="AY7" s="100"/>
       <c r="AZ7" s="101"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="107"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="119"/>
+      <c r="BD7" s="119"/>
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119"/>
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
       <c r="BI7" s="9"/>
     </row>
     <row r="8" spans="1:61" s="4" customFormat="1" ht="25.5">
@@ -5169,21 +5172,21 @@
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
       <c r="F8" s="72"/>
       <c r="G8" s="72"/>
       <c r="H8" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="72"/>
       <c r="J8" s="72"/>
       <c r="K8" s="72"/>
       <c r="L8" s="75"/>
       <c r="M8" s="77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
@@ -5192,7 +5195,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="63"/>
       <c r="T8" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U8" s="62"/>
       <c r="V8" s="62"/>
@@ -5203,7 +5206,7 @@
       <c r="AA8" s="62"/>
       <c r="AB8" s="62"/>
       <c r="AC8" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD8" s="62"/>
       <c r="AE8" s="62"/>
@@ -5220,7 +5223,7 @@
       <c r="AP8" s="56"/>
       <c r="AQ8" s="57"/>
       <c r="AR8" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AS8" s="56"/>
       <c r="AT8" s="57"/>
@@ -5231,7 +5234,7 @@
       <c r="AY8" s="56"/>
       <c r="AZ8" s="57"/>
       <c r="BA8" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BB8" s="50"/>
       <c r="BC8" s="50"/>
@@ -5311,21 +5314,21 @@
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="72"/>
       <c r="E10" s="72"/>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
       <c r="H10" s="71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
       <c r="K10" s="72"/>
       <c r="L10" s="75"/>
       <c r="M10" s="77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
@@ -5343,7 +5346,7 @@
       <c r="AA10" s="62"/>
       <c r="AB10" s="62"/>
       <c r="AC10" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD10" s="62"/>
       <c r="AE10" s="62"/>
@@ -5360,7 +5363,7 @@
       <c r="AP10" s="56"/>
       <c r="AQ10" s="57"/>
       <c r="AR10" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AS10" s="56"/>
       <c r="AT10" s="57"/>
@@ -5371,7 +5374,7 @@
       <c r="AY10" s="56"/>
       <c r="AZ10" s="57"/>
       <c r="BA10" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BB10" s="50"/>
       <c r="BC10" s="50"/>
@@ -5451,21 +5454,21 @@
       </c>
       <c r="B12" s="68"/>
       <c r="C12" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="72"/>
       <c r="F12" s="72"/>
       <c r="G12" s="72"/>
       <c r="H12" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
       <c r="L12" s="75"/>
       <c r="M12" s="77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
@@ -5474,7 +5477,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="63"/>
       <c r="T12" s="80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U12" s="62"/>
       <c r="V12" s="62"/>
@@ -5485,7 +5488,7 @@
       <c r="AA12" s="62"/>
       <c r="AB12" s="62"/>
       <c r="AC12" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD12" s="62"/>
       <c r="AE12" s="62"/>
@@ -5502,7 +5505,7 @@
       <c r="AP12" s="56"/>
       <c r="AQ12" s="57"/>
       <c r="AR12" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AS12" s="56"/>
       <c r="AT12" s="57"/>
@@ -5513,7 +5516,7 @@
       <c r="AY12" s="56"/>
       <c r="AZ12" s="57"/>
       <c r="BA12" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BB12" s="50"/>
       <c r="BC12" s="50"/>
@@ -5593,21 +5596,21 @@
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="72"/>
       <c r="F14" s="72"/>
       <c r="G14" s="72"/>
       <c r="H14" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="72"/>
       <c r="J14" s="72"/>
       <c r="K14" s="72"/>
       <c r="L14" s="75"/>
       <c r="M14" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
@@ -5616,7 +5619,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="63"/>
       <c r="T14" s="80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U14" s="62"/>
       <c r="V14" s="62"/>
@@ -5627,7 +5630,7 @@
       <c r="AA14" s="62"/>
       <c r="AB14" s="62"/>
       <c r="AC14" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD14" s="62"/>
       <c r="AE14" s="62"/>
@@ -5643,7 +5646,9 @@
       <c r="AO14" s="56"/>
       <c r="AP14" s="56"/>
       <c r="AQ14" s="57"/>
-      <c r="AR14" s="55"/>
+      <c r="AR14" s="55" t="s">
+        <v>65</v>
+      </c>
       <c r="AS14" s="56"/>
       <c r="AT14" s="57"/>
       <c r="AU14" s="55"/>
@@ -5731,27 +5736,31 @@
       </c>
       <c r="B16" s="68"/>
       <c r="C16" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
       <c r="G16" s="72"/>
       <c r="H16" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
       <c r="K16" s="72"/>
       <c r="L16" s="75"/>
-      <c r="M16" s="77"/>
+      <c r="M16" s="77" t="s">
+        <v>66</v>
+      </c>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
       <c r="P16" s="62"/>
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
       <c r="S16" s="63"/>
-      <c r="T16" s="80"/>
+      <c r="T16" s="80" t="s">
+        <v>67</v>
+      </c>
       <c r="U16" s="62"/>
       <c r="V16" s="62"/>
       <c r="W16" s="62"/>
@@ -5760,7 +5769,9 @@
       <c r="Z16" s="62"/>
       <c r="AA16" s="62"/>
       <c r="AB16" s="62"/>
-      <c r="AC16" s="61"/>
+      <c r="AC16" s="61" t="s">
+        <v>69</v>
+      </c>
       <c r="AD16" s="62"/>
       <c r="AE16" s="62"/>
       <c r="AF16" s="62"/>
@@ -5775,7 +5786,9 @@
       <c r="AO16" s="56"/>
       <c r="AP16" s="56"/>
       <c r="AQ16" s="57"/>
-      <c r="AR16" s="55"/>
+      <c r="AR16" s="55" t="s">
+        <v>75</v>
+      </c>
       <c r="AS16" s="56"/>
       <c r="AT16" s="57"/>
       <c r="AU16" s="55"/>
@@ -5863,21 +5876,21 @@
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
       <c r="F18" s="72"/>
       <c r="G18" s="72"/>
       <c r="H18" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
       <c r="L18" s="75"/>
       <c r="M18" s="77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N18" s="62"/>
       <c r="O18" s="62"/>
@@ -5913,7 +5926,9 @@
       <c r="AO18" s="56"/>
       <c r="AP18" s="56"/>
       <c r="AQ18" s="57"/>
-      <c r="AR18" s="55"/>
+      <c r="AR18" s="55" t="s">
+        <v>75</v>
+      </c>
       <c r="AS18" s="56"/>
       <c r="AT18" s="57"/>
       <c r="AU18" s="55"/>
@@ -5995,465 +6010,32 @@
       <c r="BH19" s="54"/>
       <c r="BI19" s="10"/>
     </row>
-    <row r="20" spans="1:61" ht="25.5">
-      <c r="A20" s="67">
-        <v>7</v>
-      </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="63"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="56"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="55"/>
-      <c r="AV20" s="56"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="55"/>
-      <c r="AY20" s="56"/>
-      <c r="AZ20" s="57"/>
-      <c r="BA20" s="49"/>
-      <c r="BB20" s="50"/>
-      <c r="BC20" s="50"/>
-      <c r="BD20" s="50"/>
-      <c r="BE20" s="50"/>
-      <c r="BF20" s="50"/>
-      <c r="BG20" s="50"/>
-      <c r="BH20" s="51"/>
-      <c r="BI20" s="10"/>
-    </row>
-    <row r="21" spans="1:61" ht="25.5">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="58"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="60"/>
-      <c r="AR21" s="58"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="60"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="60"/>
-      <c r="AX21" s="58"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="52"/>
-      <c r="BB21" s="53"/>
-      <c r="BC21" s="53"/>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
-      <c r="BF21" s="53"/>
-      <c r="BG21" s="53"/>
-      <c r="BH21" s="54"/>
-      <c r="BI21" s="10"/>
-    </row>
-    <row r="22" spans="1:61" ht="25.5">
-      <c r="A22" s="67">
-        <v>8</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="63"/>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="56"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="55"/>
-      <c r="AV22" s="56"/>
-      <c r="AW22" s="57"/>
-      <c r="AX22" s="55"/>
-      <c r="AY22" s="56"/>
-      <c r="AZ22" s="57"/>
-      <c r="BA22" s="49"/>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="50"/>
-      <c r="BD22" s="50"/>
-      <c r="BE22" s="50"/>
-      <c r="BF22" s="50"/>
-      <c r="BG22" s="50"/>
-      <c r="BH22" s="51"/>
-      <c r="BI22" s="10"/>
-    </row>
-    <row r="23" spans="1:61" ht="25.5">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="78"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="58"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="60"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="59"/>
-      <c r="AT23" s="60"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="59"/>
-      <c r="AW23" s="60"/>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="59"/>
-      <c r="AZ23" s="60"/>
-      <c r="BA23" s="52"/>
-      <c r="BB23" s="53"/>
-      <c r="BC23" s="53"/>
-      <c r="BD23" s="53"/>
-      <c r="BE23" s="53"/>
-      <c r="BF23" s="53"/>
-      <c r="BG23" s="53"/>
-      <c r="BH23" s="54"/>
-      <c r="BI23" s="10"/>
-    </row>
-    <row r="24" spans="1:61" ht="25.5">
-      <c r="A24" s="67">
-        <v>9</v>
-      </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="62"/>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="62"/>
-      <c r="AL24" s="62"/>
-      <c r="AM24" s="63"/>
-      <c r="AN24" s="55"/>
-      <c r="AO24" s="56"/>
-      <c r="AP24" s="56"/>
-      <c r="AQ24" s="57"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="56"/>
-      <c r="AT24" s="57"/>
-      <c r="AU24" s="55"/>
-      <c r="AV24" s="56"/>
-      <c r="AW24" s="57"/>
-      <c r="AX24" s="55"/>
-      <c r="AY24" s="56"/>
-      <c r="AZ24" s="57"/>
-      <c r="BA24" s="49"/>
-      <c r="BB24" s="50"/>
-      <c r="BC24" s="50"/>
-      <c r="BD24" s="50"/>
-      <c r="BE24" s="50"/>
-      <c r="BF24" s="50"/>
-      <c r="BG24" s="50"/>
-      <c r="BH24" s="51"/>
-      <c r="BI24" s="10"/>
-    </row>
-    <row r="25" spans="1:61" ht="25.5">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="64"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="58"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="60"/>
-      <c r="AR25" s="58"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="60"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="59"/>
-      <c r="AW25" s="60"/>
-      <c r="AX25" s="58"/>
-      <c r="AY25" s="59"/>
-      <c r="AZ25" s="60"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="53"/>
-      <c r="BC25" s="53"/>
-      <c r="BD25" s="53"/>
-      <c r="BE25" s="53"/>
-      <c r="BF25" s="53"/>
-      <c r="BG25" s="53"/>
-      <c r="BH25" s="54"/>
-      <c r="BI25" s="10"/>
-    </row>
+    <row r="20" spans="1:61" ht="25.5" customHeight="1"/>
+    <row r="22" spans="1:61" ht="25.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="BA24:BH25"/>
-    <mergeCell ref="AC24:AM25"/>
-    <mergeCell ref="AN24:AQ25"/>
-    <mergeCell ref="AR24:AT25"/>
-    <mergeCell ref="AU24:AW25"/>
-    <mergeCell ref="AX24:AZ25"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:G25"/>
-    <mergeCell ref="H24:L25"/>
-    <mergeCell ref="M24:S25"/>
-    <mergeCell ref="T24:AB25"/>
-    <mergeCell ref="BA20:BH21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="H22:L23"/>
-    <mergeCell ref="M22:S23"/>
-    <mergeCell ref="T22:AB23"/>
-    <mergeCell ref="AC22:AM23"/>
-    <mergeCell ref="AN22:AQ23"/>
-    <mergeCell ref="AR22:AT23"/>
-    <mergeCell ref="AU22:AW23"/>
-    <mergeCell ref="AX22:AZ23"/>
-    <mergeCell ref="BA22:BH23"/>
-    <mergeCell ref="AC20:AM21"/>
-    <mergeCell ref="AN20:AQ21"/>
-    <mergeCell ref="AR20:AT21"/>
-    <mergeCell ref="AU20:AW21"/>
-    <mergeCell ref="AX20:AZ21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:G21"/>
-    <mergeCell ref="H20:L21"/>
-    <mergeCell ref="M20:S21"/>
-    <mergeCell ref="T20:AB21"/>
+  <mergeCells count="102">
+    <mergeCell ref="AX16:AZ17"/>
     <mergeCell ref="BA16:BH17"/>
+    <mergeCell ref="BA18:BH19"/>
+    <mergeCell ref="AC18:AM19"/>
+    <mergeCell ref="AN18:AQ19"/>
+    <mergeCell ref="AR18:AT19"/>
+    <mergeCell ref="AU18:AW19"/>
+    <mergeCell ref="AX18:AZ19"/>
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="C18:G19"/>
     <mergeCell ref="H18:L19"/>
     <mergeCell ref="M18:S19"/>
     <mergeCell ref="T18:AB19"/>
-    <mergeCell ref="AC18:AM19"/>
-    <mergeCell ref="AN18:AQ19"/>
-    <mergeCell ref="AR18:AT19"/>
-    <mergeCell ref="AU18:AW19"/>
-    <mergeCell ref="AX18:AZ19"/>
-    <mergeCell ref="BA18:BH19"/>
-    <mergeCell ref="AC16:AM17"/>
-    <mergeCell ref="AN16:AQ17"/>
-    <mergeCell ref="AR16:AT17"/>
-    <mergeCell ref="AU16:AW17"/>
-    <mergeCell ref="AX16:AZ17"/>
     <mergeCell ref="A16:B17"/>
     <mergeCell ref="C16:G17"/>
     <mergeCell ref="H16:L17"/>
     <mergeCell ref="M16:S17"/>
     <mergeCell ref="T16:AB17"/>
+    <mergeCell ref="AC16:AM17"/>
+    <mergeCell ref="AN16:AQ17"/>
+    <mergeCell ref="AR16:AT17"/>
+    <mergeCell ref="AU16:AW17"/>
     <mergeCell ref="AW1:AZ1"/>
     <mergeCell ref="BA1:BH1"/>
     <mergeCell ref="A2:G2"/>
@@ -6468,6 +6050,12 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AN1:AR1"/>
     <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AR6:AT7"/>
+    <mergeCell ref="AC8:AM9"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="AN12:AQ13"/>
     <mergeCell ref="AN3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="BA3:BH3"/>
@@ -6479,18 +6067,6 @@
     <mergeCell ref="AX6:AZ7"/>
     <mergeCell ref="AN6:AQ7"/>
     <mergeCell ref="BA6:BH7"/>
-    <mergeCell ref="AR8:AT9"/>
-    <mergeCell ref="AU8:AW9"/>
-    <mergeCell ref="AX8:AZ9"/>
-    <mergeCell ref="AN8:AQ9"/>
-    <mergeCell ref="M12:S13"/>
-    <mergeCell ref="AR10:AT11"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="AR6:AT7"/>
-    <mergeCell ref="AC8:AM9"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="H8:L9"/>
@@ -6502,6 +6078,10 @@
     <mergeCell ref="T6:AB7"/>
     <mergeCell ref="AC6:AM7"/>
     <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
     <mergeCell ref="AC14:AM15"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:G11"/>
@@ -6519,10 +6099,7 @@
     <mergeCell ref="C12:G13"/>
     <mergeCell ref="H12:L13"/>
     <mergeCell ref="AC12:AM13"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="AN12:AQ13"/>
+    <mergeCell ref="M12:S13"/>
     <mergeCell ref="BA8:BH9"/>
     <mergeCell ref="BA10:BH11"/>
     <mergeCell ref="BA12:BH13"/>
@@ -6534,9 +6111,14 @@
     <mergeCell ref="AU10:AW11"/>
     <mergeCell ref="AX10:AZ11"/>
     <mergeCell ref="AN10:AQ11"/>
+    <mergeCell ref="AR8:AT9"/>
+    <mergeCell ref="AU8:AW9"/>
+    <mergeCell ref="AX8:AZ9"/>
+    <mergeCell ref="AN8:AQ9"/>
+    <mergeCell ref="AR10:AT11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR10 AR12 AR14 AR16 AR18 AR20 AR22 AR24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR10 AR12 AR14 AR16 AR18">
       <formula1>"N/A,OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6554,7 +6136,7 @@
           <x14:formula1>
             <xm:f>Defined!D$25:D$33</xm:f>
           </x14:formula1>
-          <xm:sqref>H8:L25</xm:sqref>
+          <xm:sqref>H8:L19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6575,19 +6157,19 @@
     <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:2" ht="21.75" thickBot="1">
       <c r="B2" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="18" spans="2:2" ht="21.75" thickBot="1">
       <c r="B18" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="48" spans="2:2" ht="21.75" thickBot="1">
       <c r="B48" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6609,7 +6191,7 @@
   <sheetData>
     <row r="5" spans="5:13">
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="5:13">
@@ -6624,7 +6206,7 @@
     <row r="8" spans="5:13">
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -6636,7 +6218,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -6647,7 +6229,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -6658,7 +6240,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -6669,7 +6251,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -6680,7 +6262,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -6699,7 +6281,7 @@
     <row r="15" spans="5:13">
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -6711,7 +6293,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -6722,7 +6304,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -6733,7 +6315,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -6744,7 +6326,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -6755,7 +6337,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -6766,7 +6348,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -6784,42 +6366,42 @@
     </row>
     <row r="24" spans="3:13">
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="3:13">
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="3:13">
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="3:13">
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="3:13">
       <c r="D28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="3:13">
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="3:13">
       <c r="D30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="3:13">
       <c r="D31" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
